--- a/regions/12/biznes seqtori/saqmianobis mikhedvit_nace rev.2.xlsx
+++ b/regions/12/biznes seqtori/saqmianobis mikhedvit_nace rev.2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8BB76D-94D6-455C-BE9A-0DF667599FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,10 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="25">
-  <si>
-    <t>ბიზენს სექტორი</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="26">
   <si>
     <t>შიდა ქართლი</t>
   </si>
@@ -90,11 +88,17 @@
   <si>
     <t>...</t>
   </si>
+  <si>
+    <t>ბიზნეს სექტორი</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -200,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -248,6 +252,9 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -342,6 +349,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -377,6 +401,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -552,10 +593,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -567,17 +610,17 @@
     <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="4">
         <v>2006</v>
@@ -624,10 +667,16 @@
       <c r="P5" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q5" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R5" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="9">
         <v>373.6</v>
@@ -674,10 +723,16 @@
       <c r="P6" s="12">
         <v>2051.6999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q6" s="12">
+        <v>2342.8000000000002</v>
+      </c>
+      <c r="R6" s="12">
+        <v>3047.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="13">
         <v>1.5</v>
@@ -724,10 +779,16 @@
       <c r="P7" s="14">
         <v>49.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q7" s="14">
+        <v>89.7</v>
+      </c>
+      <c r="R7" s="14">
+        <v>123.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="13">
         <v>1.6</v>
@@ -774,10 +835,16 @@
       <c r="P8" s="14">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q8" s="14">
+        <v>23</v>
+      </c>
+      <c r="R8" s="14">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="13">
         <v>231.5</v>
@@ -824,10 +891,16 @@
       <c r="P9" s="14">
         <v>741.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q9" s="14">
+        <v>850.1</v>
+      </c>
+      <c r="R9" s="14">
+        <v>1091.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="13">
         <v>6.3</v>
@@ -839,10 +912,10 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" s="13">
         <v>17</v>
@@ -854,30 +927,36 @@
         <v>11.2</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N10" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O10" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P10" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="R10" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="13">
         <v>0.9</v>
@@ -889,10 +968,10 @@
         <v>0.3</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G11" s="13">
         <v>4.4000000000000004</v>
@@ -904,30 +983,36 @@
         <v>0.6</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M11" s="14">
         <v>1.4</v>
       </c>
       <c r="N11" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O11" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="Q11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="R11" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="13">
         <v>49.3</v>
@@ -974,10 +1059,16 @@
       <c r="P12" s="14">
         <v>114.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q12" s="14">
+        <v>157.5</v>
+      </c>
+      <c r="R12" s="14">
+        <v>170.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="13">
         <v>70.8</v>
@@ -1024,10 +1115,16 @@
       <c r="P13" s="14">
         <v>1028.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q13" s="14">
+        <v>1108.7</v>
+      </c>
+      <c r="R13" s="14">
+        <v>1385.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="13">
         <v>4.0999999999999996</v>
@@ -1074,10 +1171,16 @@
       <c r="P14" s="14">
         <v>39.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q14" s="14">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="R14" s="14">
+        <v>124.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="13">
         <v>1.9</v>
@@ -1124,10 +1227,16 @@
       <c r="P15" s="14">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q15" s="14">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="R15" s="14">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="13">
         <v>0.6</v>
@@ -1174,10 +1283,16 @@
       <c r="P16" s="14">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q16" s="14">
+        <v>3.1</v>
+      </c>
+      <c r="R16" s="14">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="13">
         <v>1</v>
@@ -1224,10 +1339,16 @@
       <c r="P17" s="14">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q17" s="14">
+        <v>17.3</v>
+      </c>
+      <c r="R17" s="14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="13">
         <v>0.3</v>
@@ -1274,10 +1395,16 @@
       <c r="P18" s="14">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q18" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="R18" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="13">
         <v>0.3</v>
@@ -1324,10 +1451,16 @@
       <c r="P19" s="14">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q19" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="R19" s="14">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="13">
         <v>0.8</v>
@@ -1374,10 +1507,16 @@
       <c r="P20" s="14">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q20" s="14">
+        <v>2.6</v>
+      </c>
+      <c r="R20" s="14">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="13">
         <v>2.5</v>
@@ -1424,10 +1563,16 @@
       <c r="P21" s="14">
         <v>17.100000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q21" s="14">
+        <v>18.2</v>
+      </c>
+      <c r="R21" s="14">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="13">
         <v>0.1</v>
@@ -1436,7 +1581,7 @@
         <v>0.2</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" s="13">
         <v>0.6</v>
@@ -1474,10 +1619,16 @@
       <c r="P22" s="14">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q22" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="R22" s="14">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="13">
         <v>0.1</v>
@@ -1524,13 +1675,19 @@
       <c r="P23" s="14">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q23" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="R23" s="14">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="4">
         <v>2006</v>
@@ -1577,10 +1734,16 @@
       <c r="P27" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q27" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R27" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" s="9">
         <v>310.7</v>
@@ -1627,10 +1790,16 @@
       <c r="P28" s="12">
         <v>1150.2</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q28" s="12">
+        <v>1386.6</v>
+      </c>
+      <c r="R28" s="12">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" s="13">
         <v>1.7</v>
@@ -1677,10 +1846,16 @@
       <c r="P29" s="14">
         <v>58.6</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q29" s="14">
+        <v>96</v>
+      </c>
+      <c r="R29" s="14">
+        <v>141.19999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B30" s="13">
         <v>1.6</v>
@@ -1727,10 +1902,16 @@
       <c r="P30" s="14">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q30" s="14">
+        <v>23.1</v>
+      </c>
+      <c r="R30" s="14">
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" s="13">
         <v>233.9</v>
@@ -1777,10 +1958,16 @@
       <c r="P31" s="14">
         <v>725.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q31" s="14">
+        <v>822.1</v>
+      </c>
+      <c r="R31" s="14">
+        <v>1086.9000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32" s="13">
         <v>1.7</v>
@@ -1792,10 +1979,10 @@
         <v>2</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G32" s="13">
         <v>3.8</v>
@@ -1807,30 +1994,36 @@
         <v>6.1</v>
       </c>
       <c r="J32" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K32" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L32" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M32" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N32" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O32" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P32" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="Q32" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="R32" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" s="13">
         <v>1.3</v>
@@ -1842,10 +2035,10 @@
         <v>1.2</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G33" s="13">
         <v>4.4000000000000004</v>
@@ -1857,30 +2050,36 @@
         <v>0.6</v>
       </c>
       <c r="J33" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K33" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L33" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M33" s="14">
         <v>1.4</v>
       </c>
       <c r="N33" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O33" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P33" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="Q33" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="R33" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" s="13">
         <v>49.3</v>
@@ -1927,10 +2126,16 @@
       <c r="P34" s="14">
         <v>116.3</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q34" s="14">
+        <v>157.19999999999999</v>
+      </c>
+      <c r="R34" s="14">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B35" s="13">
         <v>7.5</v>
@@ -1977,10 +2182,16 @@
       <c r="P35" s="14">
         <v>111.4</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q35" s="14">
+        <v>140.19999999999999</v>
+      </c>
+      <c r="R35" s="14">
+        <v>213.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B36" s="13">
         <v>5.3</v>
@@ -2027,10 +2238,16 @@
       <c r="P36" s="14">
         <v>39.9</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q36" s="14">
+        <v>36.1</v>
+      </c>
+      <c r="R36" s="14">
+        <v>123.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37" s="13">
         <v>1.9</v>
@@ -2077,10 +2294,16 @@
       <c r="P37" s="14">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q37" s="14">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="R37" s="14">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38" s="13">
         <v>0.5</v>
@@ -2127,10 +2350,16 @@
       <c r="P38" s="14">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q38" s="14">
+        <v>3</v>
+      </c>
+      <c r="R38" s="14">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39" s="13">
         <v>1</v>
@@ -2177,10 +2406,16 @@
       <c r="P39" s="14">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q39" s="14">
+        <v>17.3</v>
+      </c>
+      <c r="R39" s="14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B40" s="13">
         <v>0.3</v>
@@ -2227,10 +2462,16 @@
       <c r="P40" s="14">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q40" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="R40" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B41" s="13">
         <v>0.3</v>
@@ -2277,10 +2518,16 @@
       <c r="P41" s="14">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q41" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="R41" s="14">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B42" s="13">
         <v>0.9</v>
@@ -2327,10 +2574,16 @@
       <c r="P42" s="14">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q42" s="14">
+        <v>2.6</v>
+      </c>
+      <c r="R42" s="14">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B43" s="13">
         <v>3.1</v>
@@ -2377,10 +2630,16 @@
       <c r="P43" s="14">
         <v>36.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q43" s="14">
+        <v>53.1</v>
+      </c>
+      <c r="R43" s="14">
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B44" s="13">
         <v>0.1</v>
@@ -2389,7 +2648,7 @@
         <v>0.2</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E44" s="13">
         <v>0.6</v>
@@ -2427,10 +2686,16 @@
       <c r="P44" s="14">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q44" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="R44" s="14">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B45" s="13">
         <v>0.1</v>
@@ -2477,13 +2742,19 @@
       <c r="P45" s="14">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q45" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="R45" s="14">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="4">
         <v>2006</v>
@@ -2530,10 +2801,16 @@
       <c r="P49" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q49" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R49" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B50" s="15">
         <v>14743</v>
@@ -2580,10 +2857,16 @@
       <c r="P50" s="17">
         <v>18910.599999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q50" s="17">
+        <v>19650</v>
+      </c>
+      <c r="R50" s="17">
+        <v>20619</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B51" s="18">
         <v>158</v>
@@ -2630,10 +2913,16 @@
       <c r="P51" s="19">
         <v>957.3</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q51" s="19">
+        <v>997</v>
+      </c>
+      <c r="R51" s="19">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B52" s="18">
         <v>121</v>
@@ -2680,10 +2969,16 @@
       <c r="P52" s="19">
         <v>276.10000000000002</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q52" s="19">
+        <v>303</v>
+      </c>
+      <c r="R52" s="19">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B53" s="18">
         <v>5591</v>
@@ -2730,10 +3025,16 @@
       <c r="P53" s="19">
         <v>4543.1000000000004</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q53" s="19">
+        <v>4603</v>
+      </c>
+      <c r="R53" s="19">
+        <v>4710</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B54" s="18">
         <v>293</v>
@@ -2745,10 +3046,10 @@
         <v>239</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G54" s="18">
         <v>253</v>
@@ -2760,30 +3061,36 @@
         <v>162</v>
       </c>
       <c r="J54" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K54" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L54" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M54" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N54" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O54" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P54" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="Q54" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="R54" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B55" s="18">
         <v>408</v>
@@ -2795,10 +3102,10 @@
         <v>254</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G55" s="18">
         <v>541</v>
@@ -2810,30 +3117,36 @@
         <v>146</v>
       </c>
       <c r="J55" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K55" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L55" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M55" s="19">
         <v>149</v>
       </c>
       <c r="N55" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O55" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P55" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="Q55" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="R55" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B56" s="18">
         <v>2914</v>
@@ -2880,10 +3193,16 @@
       <c r="P56" s="19">
         <v>1978.2</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q56" s="19">
+        <v>2163</v>
+      </c>
+      <c r="R56" s="19">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B57" s="18">
         <v>1734</v>
@@ -2930,10 +3249,16 @@
       <c r="P57" s="19">
         <v>6115.7</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q57" s="19">
+        <v>6217</v>
+      </c>
+      <c r="R57" s="19">
+        <v>6664</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B58" s="18">
         <v>400</v>
@@ -2980,10 +3305,16 @@
       <c r="P58" s="19">
         <v>714.2</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q58" s="19">
+        <v>868</v>
+      </c>
+      <c r="R58" s="19">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B59" s="18">
         <v>374</v>
@@ -3030,10 +3361,16 @@
       <c r="P59" s="19">
         <v>329</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q59" s="19">
+        <v>339</v>
+      </c>
+      <c r="R59" s="19">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B60" s="18">
         <v>177</v>
@@ -3080,10 +3417,16 @@
       <c r="P60" s="19">
         <v>189</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q60" s="19">
+        <v>235</v>
+      </c>
+      <c r="R60" s="19">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B61" s="18">
         <v>265</v>
@@ -3130,10 +3473,16 @@
       <c r="P61" s="19">
         <v>584</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q61" s="19">
+        <v>593</v>
+      </c>
+      <c r="R61" s="19">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B62" s="18">
         <v>89</v>
@@ -3180,10 +3529,16 @@
       <c r="P62" s="19">
         <v>222</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q62" s="19">
+        <v>197</v>
+      </c>
+      <c r="R62" s="19">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B63" s="18">
         <v>72</v>
@@ -3230,10 +3585,16 @@
       <c r="P63" s="19">
         <v>226</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q63" s="19">
+        <v>227</v>
+      </c>
+      <c r="R63" s="19">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B64" s="18">
         <v>610</v>
@@ -3280,10 +3641,16 @@
       <c r="P64" s="19">
         <v>326</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q64" s="19">
+        <v>360</v>
+      </c>
+      <c r="R64" s="19">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B65" s="18">
         <v>1436</v>
@@ -3330,10 +3697,16 @@
       <c r="P65" s="19">
         <v>2210</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q65" s="19">
+        <v>2215</v>
+      </c>
+      <c r="R65" s="19">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B66" s="18">
         <v>27</v>
@@ -3342,7 +3715,7 @@
         <v>47</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E66" s="18">
         <v>45</v>
@@ -3380,10 +3753,16 @@
       <c r="P66" s="19">
         <v>111</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q66" s="19">
+        <v>91</v>
+      </c>
+      <c r="R66" s="19">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B67" s="18">
         <v>75</v>
@@ -3430,13 +3809,19 @@
       <c r="P67" s="19">
         <v>88</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q67" s="19">
+        <v>202</v>
+      </c>
+      <c r="R67" s="19">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="4">
         <v>2006</v>
@@ -3483,10 +3868,16 @@
       <c r="P71" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q71" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R71" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B72" s="9">
         <v>161.80000000000001</v>
@@ -3533,10 +3924,16 @@
       <c r="P72" s="12">
         <v>751.3</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q72" s="12">
+        <v>861.9</v>
+      </c>
+      <c r="R72" s="12">
+        <v>1004.6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B73" s="13">
         <v>176.1</v>
@@ -3583,10 +3980,16 @@
       <c r="P73" s="14">
         <v>575.20000000000005</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q73" s="14">
+        <v>644.79999999999995</v>
+      </c>
+      <c r="R73" s="14">
+        <v>986.9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B74" s="13">
         <v>328.2</v>
@@ -3633,10 +4036,16 @@
       <c r="P74" s="14">
         <v>1238.3</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q74" s="14">
+        <v>1230.5999999999999</v>
+      </c>
+      <c r="R74" s="14">
+        <v>1561.7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B75" s="13">
         <v>180.6</v>
@@ -3683,10 +4092,16 @@
       <c r="P75" s="14">
         <v>1047.7</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q75" s="14">
+        <v>1165.0999999999999</v>
+      </c>
+      <c r="R75" s="14">
+        <v>1367.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B76" s="13">
         <v>160.4</v>
@@ -3698,10 +4113,10 @@
         <v>446.4</v>
       </c>
       <c r="E76" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F76" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G76" s="13">
         <v>695.2</v>
@@ -3713,30 +4128,36 @@
         <v>609.9</v>
       </c>
       <c r="J76" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K76" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L76" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M76" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N76" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O76" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P76" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="Q76" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="R76" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B77" s="13">
         <v>67.8</v>
@@ -3748,10 +4169,10 @@
         <v>164.6</v>
       </c>
       <c r="E77" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G77" s="13">
         <v>413.5</v>
@@ -3763,30 +4184,36 @@
         <v>228.6</v>
       </c>
       <c r="J77" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K77" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L77" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M77" s="14">
         <v>429.9</v>
       </c>
       <c r="N77" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O77" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P77" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="Q77" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="R77" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B78" s="13">
         <v>226.2</v>
@@ -3833,10 +4260,16 @@
       <c r="P78" s="14">
         <v>953.1</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q78" s="14">
+        <v>1143.7</v>
+      </c>
+      <c r="R78" s="14">
+        <v>1291.0999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B79" s="13">
         <v>72.900000000000006</v>
@@ -3883,10 +4316,16 @@
       <c r="P79" s="14">
         <v>558.9</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q79" s="14">
+        <v>544.29999999999995</v>
+      </c>
+      <c r="R79" s="14">
+        <v>765.4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B80" s="13">
         <v>213</v>
@@ -3933,10 +4372,16 @@
       <c r="P80" s="14">
         <v>726</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q80" s="14">
+        <v>953.3</v>
+      </c>
+      <c r="R80" s="14">
+        <v>950.3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B81" s="13">
         <v>72.8</v>
@@ -3983,10 +4428,16 @@
       <c r="P81" s="14">
         <v>238</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q81" s="14">
+        <v>455.3</v>
+      </c>
+      <c r="R81" s="14">
+        <v>463.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B82" s="13">
         <v>74.5</v>
@@ -4033,10 +4484,16 @@
       <c r="P82" s="14">
         <v>600.20000000000005</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q82" s="14">
+        <v>528.4</v>
+      </c>
+      <c r="R82" s="14">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B83" s="13">
         <v>116</v>
@@ -4083,10 +4540,16 @@
       <c r="P83" s="14">
         <v>226.2</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q83" s="14">
+        <v>329.8</v>
+      </c>
+      <c r="R83" s="14">
+        <v>315.7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B84" s="13">
         <v>169.5</v>
@@ -4133,10 +4596,16 @@
       <c r="P84" s="14">
         <v>181.2</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="Q84" s="14">
+        <v>612.1</v>
+      </c>
+      <c r="R84" s="14">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" ht="30" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B85" s="13">
         <v>91</v>
@@ -4183,10 +4652,16 @@
       <c r="P85" s="14">
         <v>256.2</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q85" s="14">
+        <v>462.2</v>
+      </c>
+      <c r="R85" s="14">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B86" s="13">
         <v>72.599999999999994</v>
@@ -4233,10 +4708,16 @@
       <c r="P86" s="14">
         <v>303.5</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q86" s="14">
+        <v>388.9</v>
+      </c>
+      <c r="R86" s="14">
+        <v>709.9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B87" s="13">
         <v>105.2</v>
@@ -4283,10 +4764,16 @@
       <c r="P87" s="14">
         <v>642.70000000000005</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q87" s="14">
+        <v>800.3</v>
+      </c>
+      <c r="R87" s="14">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B88" s="13">
         <v>54.6</v>
@@ -4294,8 +4781,8 @@
       <c r="C88" s="13">
         <v>47.5</v>
       </c>
-      <c r="D88" s="13" t="s">
-        <v>21</v>
+      <c r="D88" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="E88" s="13">
         <v>94.2</v>
@@ -4333,10 +4820,16 @@
       <c r="P88" s="14">
         <v>1288.3</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q88" s="14">
+        <v>3018.7</v>
+      </c>
+      <c r="R88" s="14">
+        <v>3049.4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B89" s="13">
         <v>41.1</v>
@@ -4382,6 +4875,12 @@
       </c>
       <c r="P89" s="14">
         <v>335.7</v>
+      </c>
+      <c r="Q89" s="14">
+        <v>118.2</v>
+      </c>
+      <c r="R89" s="14">
+        <v>107.5</v>
       </c>
     </row>
   </sheetData>
